--- a/sample/test1.xlsx
+++ b/sample/test1.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/satoshi/living_room/workbench/excel-diff/sample/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/satoshi/living_room/workbench/github-up/excel_diff/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15040" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="シート２" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>test</t>
     <phoneticPr fontId="1"/>
@@ -50,6 +51,14 @@
   </si>
   <si>
     <t>test1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>git diff test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tes</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -373,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -407,6 +416,32 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
